--- a/biology/Botanique/Podochileae/Podochileae.xlsx
+++ b/biology/Botanique/Podochileae/Podochileae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Podochileae sont une tribu de plantes de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
 </t>
@@ -511,39 +523,41 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le GRIN[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le GRIN
 Appendicula Blume (1825).
 Ascidieria Seidenf. (1984).
 Ceratostylis Blume (1825).
 Chilopogon Schltr. (1912).
-Chitonanthera Schltr. (1905)[2].
-Chitonochilus Schltr. (1905)[3].
+Chitonanthera Schltr. (1905).
+Chitonochilus Schltr. (1905).
 Cryptochilus Wall. (1824).
 Cyphochilus Schltr. (1912).
 Epiblastus Schltr. (1905).
 Eria Lindl. (1825).
 Mediocalcar J.J.Sm. (1900).
 Octarrhena Thwaites (1861).
-Oxyanthera Brongn. (1834)[4].
+Oxyanthera Brongn. (1834).
 Phreatia Lindl. (1830).
 Poaephyllum Ridl. (1907).
 Podochilus Blume (1825).
 Porpax Lindl. (1825).
-Rhynchophreatia Schltr. (1921)[5].
+Rhynchophreatia Schltr. (1921).
 Ridleyella Schltr. (1913).
 Sarcostoma Blume (1825).
 Stolzia Schltr. (1915).
 Thelasis Blume (1825).
 Trichotosia Blume (1825).
-Selon NCBI[6]
+Selon NCBI
 Appendicula Blume (1825).
 Ceratostylis Blume (1825).
 Eria Lindl. (1825).
-Gastrorchis Thouars (1809)[7].
+Gastrorchis Thouars (1809).
 Mediocalcar J.J.Sm. (1900).
-Phaius Lour. (1790)[8].
+Phaius Lour. (1790).
 Phreatia Lindl. (1830).
 Podochilus Blume (1825).
 Ridleyella Schltr. (1913).
